--- a/97_enquete/11.xlsx
+++ b/97_enquete/11.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="80" windowWidth="20120" windowHeight="8000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -30,9 +35,6 @@
     <t>Sim(PPGE)</t>
   </si>
   <si>
-    <t>_</t>
-  </si>
-  <si>
     <t>Sim</t>
   </si>
   <si>
@@ -49,16 +51,69 @@
   </si>
   <si>
     <t>ABC</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -81,13 +136,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="11">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -389,55 +467,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="105.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="87.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="3.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -449,26 +532,32 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -478,9 +567,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -490,8 +584,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>